--- a/outputs_tables/Permanent_water_permanent_area.xlsx
+++ b/outputs_tables/Permanent_water_permanent_area.xlsx
@@ -5,17 +5,30 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DHI\SDG661-Fresh-Water\csv\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DHI\SDG661-Fresh-Water\outputs_tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12AE138E-8549-41AF-8395-672DA47A5A6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C1B2C23-018C-4E8C-8FCA-D7D04A49AD48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-60" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -1171,10 +1184,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R246"/>
+  <dimension ref="A1:R247"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A231" workbookViewId="0">
+      <selection activeCell="A249" sqref="A249"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14953,6 +14966,52 @@
       </c>
       <c r="R246">
         <v>1</v>
+      </c>
+    </row>
+    <row r="247" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="H247">
+        <f>SUM(H2:H246)</f>
+        <v>210</v>
+      </c>
+      <c r="I247">
+        <f t="shared" ref="I247:O247" si="0">SUM(I2:I246)</f>
+        <v>423</v>
+      </c>
+      <c r="J247">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+      <c r="K247">
+        <f t="shared" si="0"/>
+        <v>56</v>
+      </c>
+      <c r="L247">
+        <f t="shared" si="0"/>
+        <v>56</v>
+      </c>
+      <c r="M247">
+        <f t="shared" si="0"/>
+        <v>75</v>
+      </c>
+      <c r="N247">
+        <f t="shared" si="0"/>
+        <v>953</v>
+      </c>
+      <c r="O247">
+        <f t="shared" si="0"/>
+        <v>457</v>
+      </c>
+      <c r="P247">
+        <f>SUM(P2:P246)</f>
+        <v>1397</v>
+      </c>
+      <c r="Q247">
+        <f>SUM(Q2:Q246)</f>
+        <v>471</v>
+      </c>
+      <c r="R247">
+        <f>SUM(R2:R246)</f>
+        <v>19163</v>
       </c>
     </row>
   </sheetData>

--- a/outputs_tables/Permanent_water_permanent_area.xlsx
+++ b/outputs_tables/Permanent_water_permanent_area.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DHI\SDG661-Fresh-Water\outputs_tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C1B2C23-018C-4E8C-8FCA-D7D04A49AD48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{348EE60B-2C78-4502-A84C-55BD71F0FEE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-60" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="840" yWindow="-15420" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1184,10 +1184,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R247"/>
+  <dimension ref="A1:R246"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A231" workbookViewId="0">
-      <selection activeCell="A249" sqref="A249"/>
+    <sheetView tabSelected="1" topLeftCell="A237" workbookViewId="0">
+      <selection activeCell="S253" sqref="S253"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14966,52 +14966,6 @@
       </c>
       <c r="R246">
         <v>1</v>
-      </c>
-    </row>
-    <row r="247" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="H247">
-        <f>SUM(H2:H246)</f>
-        <v>210</v>
-      </c>
-      <c r="I247">
-        <f t="shared" ref="I247:O247" si="0">SUM(I2:I246)</f>
-        <v>423</v>
-      </c>
-      <c r="J247">
-        <f t="shared" si="0"/>
-        <v>33</v>
-      </c>
-      <c r="K247">
-        <f t="shared" si="0"/>
-        <v>56</v>
-      </c>
-      <c r="L247">
-        <f t="shared" si="0"/>
-        <v>56</v>
-      </c>
-      <c r="M247">
-        <f t="shared" si="0"/>
-        <v>75</v>
-      </c>
-      <c r="N247">
-        <f t="shared" si="0"/>
-        <v>953</v>
-      </c>
-      <c r="O247">
-        <f t="shared" si="0"/>
-        <v>457</v>
-      </c>
-      <c r="P247">
-        <f>SUM(P2:P246)</f>
-        <v>1397</v>
-      </c>
-      <c r="Q247">
-        <f>SUM(Q2:Q246)</f>
-        <v>471</v>
-      </c>
-      <c r="R247">
-        <f>SUM(R2:R246)</f>
-        <v>19163</v>
       </c>
     </row>
   </sheetData>
